--- a/1. 1CW.xlsx
+++ b/1. 1CW.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T\temp\October\CofE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T\temp\October\Maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5281462-BF58-4911-971A-09BD5E8233E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{309A72AE-F1FC-4B6B-A4CD-B7822B72BDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="0"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="152">
   <si>
     <t>Коды</t>
   </si>
@@ -82,7 +82,7 @@
     <t>Моддий Техник Назорат</t>
   </si>
   <si>
-    <t>Мукаммаллик маркази</t>
+    <t>Мунтазам техник  хизмат курсатиш булими цехи</t>
   </si>
   <si>
     <t>Страница 1</t>
@@ -139,190 +139,295 @@
     <t>нетто</t>
   </si>
   <si>
-    <t>Аргон газ особой чистоты 6.0 ТУ 2114-003-37924839-2016 (99,9999%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0007315   </t>
+    <t>S/N252_Bearing 6204ZZ / 176-XP-010-XA-01/02/03, / Подшипник - t3.2x2" ASME 150#RF</t>
+  </si>
+  <si>
+    <t>комплект</t>
+  </si>
+  <si>
+    <t>Спец.обувь мужские для рабочих,ГОСТ 28507-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0007139   </t>
+  </si>
+  <si>
+    <t>пара</t>
+  </si>
+  <si>
+    <t>Насос с бочковым адаптером</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>Oil Mobilgear 600XP 100 / Масло</t>
+  </si>
+  <si>
+    <t>л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Смазка пластичная универсальная WD-40 400 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0005843   </t>
+  </si>
+  <si>
+    <t>Спецодежда летный из 100 х/б размеры 48,50,52,54,56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0005841   </t>
+  </si>
+  <si>
+    <t>Спирально-навитая прокладка по стандарту ASME B16.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0009312   </t>
+  </si>
+  <si>
+    <t>Сальниковая Набивка АГИ 10 х 10</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>Сальниковая Набивка АГИ 12 х 12</t>
+  </si>
+  <si>
+    <t>Сальниковая Набивка АГИ 8 х 8</t>
+  </si>
+  <si>
+    <t>Сальниковая Набивка АГИ 6 х 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ball bearing 6320 C3/ Шариковый подшипник </t>
+  </si>
+  <si>
+    <t>Size: 20" (Size: 500mm) Gasket, 316L SS WND GRAPH FILL CS I/R CS O/R RF B16.20 CL600 4.5MM thickness (3.2MM RING) Spiral Wound</t>
+  </si>
+  <si>
+    <t>ИШЧИЛАР МАХСУС КИЙИМИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0006136   </t>
+  </si>
+  <si>
+    <t>Паронит кислостойкий Давление: 2.5 Мпа Температура: 250 С Толщина: 3 мм Размер: 2м х 1,25м</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size: 10" (Size: 250mm) Gasket, 316L SS WND GRAPH FILL CS I/R CS O/R RF B16.20 CL300 4.5MM thickness (3.2MM RING) Spiral Wound </t>
+  </si>
+  <si>
+    <t>Size: 12" (Size: 300mm) Gasket, SOFT IRON RJ B16.20 CL900 R OCTAGONAL</t>
+  </si>
+  <si>
+    <t>специальная форменная одежда ГОСТ 27575-87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0007481   </t>
+  </si>
+  <si>
+    <t>Маски наркозные, дыхательные (резиновые, латексные, из полимерных материалов)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0006799   </t>
+  </si>
+  <si>
+    <t>Seat / 28119 / Запасные части насоса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0007412   </t>
+  </si>
+  <si>
+    <t>O Ring / Уплотнительное кольцо / 568112-7 / Запасные части насоса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0007417   </t>
+  </si>
+  <si>
+    <t>Bearing Piston / 51461 / Запасные части насоса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0007426   </t>
+  </si>
+  <si>
+    <t>Cotter Pin / MS24665-18 / Запасные части насоса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0007409   </t>
+  </si>
+  <si>
+    <t>O Ring / Уплотнительное кольцо / 568234-7 / Запасные части насоса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0007419   </t>
+  </si>
+  <si>
+    <t>Seal Piston / 51454 / Запасные части насоса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0007425   </t>
+  </si>
+  <si>
+    <t>Спец.обувь мужские для рабочих,ГОСТ 28507-99,UzTR.5-011:2017*</t>
+  </si>
+  <si>
+    <t>SEAL OIL DURACLEAR 32 /УПЛОТНИТЕЛЬНОЕ МАСЛО DURACLEAR 32 / Duraclear Synthetic Lubricant DS-4614-32-F. Обозначение MLA32486003.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0009318   </t>
+  </si>
+  <si>
+    <t>Size: 10" (Size: 250mm) Gasket, SOFT IRON RJ B16.20 CL900 R OCTAGONAL</t>
+  </si>
+  <si>
+    <t>Size: 18" (Size: 450mm) Gasket, SOFT IRON RJ B16.20 CL900 R OCTAGONAL</t>
+  </si>
+  <si>
+    <t>9258702/2  PRESSURE RELIEF VALVE PRM1 1/2" ANSI150 SW RF AISI316L - PTFE, Pressure relief valve SEKO PRM; Pressure Range 2-7 Barg; Inlet 1/2" ANSI150 SW RF; Outlet 1/2" ANSI150 SW RF; Wetted parts AISI316L; Diaphragm PTFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0005772   </t>
+  </si>
+  <si>
+    <t>Спецодежда зимний</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0006899   </t>
+  </si>
+  <si>
+    <t>Очки защитные ЗНГ1 PANORAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0006122   </t>
+  </si>
+  <si>
+    <t>Каска защитная СОМЗ-55 "FavoriT Trek"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0009300   </t>
+  </si>
+  <si>
+    <t>перчатки форменные для военнослужащих</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0006935   </t>
+  </si>
+  <si>
+    <t>Quloqchin ( беруши)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0005328   </t>
+  </si>
+  <si>
+    <t>Наждачная бумага от 20 мм до 40 мм.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0005258   </t>
+  </si>
+  <si>
+    <t>м2</t>
+  </si>
+  <si>
+    <t>Паста для притирки клапанов (размер 600х750)</t>
+  </si>
+  <si>
+    <t>Паста для притирки клапанов (размер F320 x 750мл)</t>
+  </si>
+  <si>
+    <t>Смазка Графитная MOLYKOTE G-N PLUS PASTE по 1KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0006563   </t>
+  </si>
+  <si>
+    <t>Проволока тип: GTAW для материала SS 2.4мм. Тип: ER316L ASME SFA-5.9 DIA 2.4 / ER316L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0007364   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size: 4" (Size: 100mm) Gasket, 316L SS WND GRAPH FILL 316L SS I/R CS O/R RF B16.20 CL300 4.5MM thickness (3.2MM RING) Spiral Wound </t>
+  </si>
+  <si>
+    <t>Абразивный отрезной круг Т41 d 125*1,0*22мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0005193   </t>
+  </si>
+  <si>
+    <t>Велосипед без двигателя VELOMAX 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0007277   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size: 1 1/2" (Size: 40mm) Gasket, 316L SS WND GRAPH FILL 316L SS I/R CS O/R RF B16.20 CL150 4.5MM thickness (3.2MM RING) Spiral Wound </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size: 14" (Size: 350mm) Gasket, 316L SS WND GRAPH FILL 316L SS I/R CS O/R RF B16.20 CL300 4.5MM thickness (3.2MM RING) Spiral Wound </t>
+  </si>
+  <si>
+    <t>Grease Mobilgrease 28 / Смазка</t>
+  </si>
+  <si>
+    <t>Диск для болгарки LA 41/115x6,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0005350   </t>
+  </si>
+  <si>
+    <t>Oil Mobil DTE 26 Ultra / Масло</t>
+  </si>
+  <si>
+    <t>Size: 1 1/2" (Size: 40mm) Gasket, SOFT IRON RJ B16.20 CL1500 R OCTAGONAL</t>
+  </si>
+  <si>
+    <t>Смола эпоксидная Belzona 1111</t>
+  </si>
+  <si>
+    <t>Size: 1" (Size: 25mm) Gasket, PTFE RF B16.21 CL150 3MM thickness FLAT RING</t>
+  </si>
+  <si>
+    <t>Size: 1 1/2" (Size: 40mm) Gasket, PTFE RF B16.21 CL150 3MM thickness FLAT RING</t>
+  </si>
+  <si>
+    <t>Аргон газообразный, чистый LAR 5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0006082   </t>
   </si>
   <si>
     <t>м³</t>
   </si>
   <si>
-    <t>Ручная таль (подъемный цепной блок) 1 тонн</t>
-  </si>
-  <si>
-    <t>шт</t>
-  </si>
-  <si>
-    <t>Male connector, stainless steel 1/2" ASTM A-276 TP316 NPTF/T W/FL NUT AND DOUBLE FERRULES / Соединение, нержавеющая сталь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0006815   </t>
-  </si>
-  <si>
-    <t>Tube union stainless steel 1/2"х1/2" ASTM A-276 TP316 T/T W/FL NUT AND DOUBLE FERRULES / Трубное соединение, наржавеющая сталь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0006972   </t>
-  </si>
-  <si>
-    <t>ФУМ-лента 19мм*15м*0,20мм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0005473   </t>
-  </si>
-  <si>
-    <t>Электроды сварочные марки УОНИ 13/55 диаметром 3 мм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0006315   </t>
-  </si>
-  <si>
-    <t>кг</t>
-  </si>
-  <si>
-    <t>Абразивный отрезной круг Т41 d 125*1,0*22мм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0005193   </t>
-  </si>
-  <si>
-    <t>Сварочный электрод тип: SMAW E308L16 для сварки аустенитных наржавеющих сталей. Классификация SFA/AWS A5.4 тип: E308L-16. Диаметр мм 2,6. Длина мм 350. DIA 2,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0007358   </t>
-  </si>
-  <si>
-    <t>Cutting disc (Bulgarian) 125mm / mm - Отрезной диск (Болгарка) 125мм</t>
-  </si>
-  <si>
-    <t>Сварочная перчатка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0009359   </t>
-  </si>
-  <si>
-    <t>пара</t>
-  </si>
-  <si>
-    <t>Специальная одежда пиджаки</t>
-  </si>
-  <si>
-    <t>комплект</t>
-  </si>
-  <si>
-    <t>ИШЧИЛАР МАХСУС КИЙИМИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0006136   </t>
-  </si>
-  <si>
-    <t>Лента из нержавеющей стали 12х0,5мм AISI304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0006868   </t>
-  </si>
-  <si>
-    <t>Heat Insulating Fiberglass Tape Main composition AI2O3+SiO2 Organic content - 20% Glass fiber reinforcement Max. pace applications, *C 650 Weight kg/sq.m. 1,5 (3mm) / Основной состав AI2O3+SiO2 Содержание органики 20%. Армированное стекловолокном. Мак темп применения *С 650, вес кг/м.кв. 1,5 (3,2мм) Толщина:  3,2мм Ширина: 50мм 3,2Т х50 W x 25ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0007391   </t>
-  </si>
-  <si>
-    <t>м</t>
-  </si>
-  <si>
-    <t>Stainless steel Tube for steam tracing ASTMA269 TP304 Welded Annealed Tube 1/2" O.D x 0.035" THK / Трубка из нержавеющей стали для пароспутника</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0006811   </t>
-  </si>
-  <si>
-    <t>Аргон газообразный, чистый LAR 5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0006082   </t>
-  </si>
-  <si>
-    <t>Спецодежда для сварщика</t>
-  </si>
-  <si>
-    <t>Спец.обувь мужские для рабочих,ГОСТ 28507-99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0007139   </t>
-  </si>
-  <si>
-    <t>Quloqchin ( беруши)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0005328   </t>
-  </si>
-  <si>
-    <t>Наушники противошумные СОМЗ-77 Победа™ арт. 60677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0005831   </t>
-  </si>
-  <si>
-    <t>Очки защитные ЗНГ1 PANORAMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0006122   </t>
-  </si>
-  <si>
-    <t>Маски наркозные, дыхательные (резиновые, латексные, из полимерных материалов)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0006799   </t>
-  </si>
-  <si>
-    <t>перчатки форменные для военнослужащих</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0006935   </t>
-  </si>
-  <si>
-    <t>Каска защитная СОМЗ-55 "FavoriT Trek"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0009300   </t>
-  </si>
-  <si>
-    <t>КИСЛОРОД газ высокой чистоты 5.0 ТУ 2114-006-37924839- 2016 (99,999%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0007244   </t>
-  </si>
-  <si>
-    <t>Manual painting brush material copper 38 x 253mm / mm copper material 38 x 253mm / mm - Ручная крацовочная щетка material copper 38x253mm / материал медны 38х253мм</t>
-  </si>
-  <si>
-    <t>Проволока из нержавеющей стали 1,2мм., AISI304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0006870   </t>
-  </si>
-  <si>
-    <t>Электроды сварочные марки УОНИ-13/55 д. 4мм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0006316   </t>
-  </si>
-  <si>
-    <t>Спец.обувь мужские для рабочих,ГОСТ 28507-99,UzTR.5-011:2017*</t>
-  </si>
-  <si>
-    <t>специальная форменная одежда ГОСТ 27575-87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0007481   </t>
-  </si>
-  <si>
-    <t>Абразивный круг зачистной армированный Т27, 14А 125x6x22мм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O0005197   </t>
+    <t>Абразивный круг отрезной Т41, 14А 230x1.8x22мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0005194   </t>
+  </si>
+  <si>
+    <t>Абразивный отрезной круг Т41 d 125*1,6*22мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0005196   </t>
+  </si>
+  <si>
+    <t>Size: 18" (Size: 450mm) Gasket, 316L SS WND GRAPH FILL CS I/R CS O/R RF B16.20 CL600 4.5MM thickness (3.2MM RING) Spiral Wound</t>
+  </si>
+  <si>
+    <t>Size: 24" (Size: 600mm) Gasket, 316L SS WND GRAPH FILL CS I/R CS O/R RF B16.20 CL600 4.5MM thickness (3.2MM RING) Spiral Wound</t>
+  </si>
+  <si>
+    <t>Size: 12" (Size: 300mm) Gasket, 316L SS WND GRAPH FILL CS I/R CS O/R RF B16.20 CL600 4.5MM thickness (3.2MM RING) Spiral Wound</t>
+  </si>
+  <si>
+    <t>Комбинезон защитный Тайвек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O0007331   </t>
   </si>
   <si>
     <t xml:space="preserve">Итого </t>
@@ -355,7 +460,7 @@
     <t>на сумму</t>
   </si>
   <si>
-    <t>Пятьдесят миллионов семьсот двадцать тысяч тридцать восемь 00</t>
+    <t>Сто пятьдесят миллионов пятьсот пятьдесят три тысячи девятьсот десять 00</t>
   </si>
   <si>
     <t>сум.</t>
@@ -370,7 +475,7 @@
     <t>Получил</t>
   </si>
   <si>
-    <t>Haydarov J. I.</t>
+    <t>Berdiyev T. O.</t>
   </si>
 </sst>
 </file>
@@ -379,10 +484,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0000000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="00000000&quot;   &quot;"/>
-    <numFmt numFmtId="167" formatCode="000"/>
-    <numFmt numFmtId="168" formatCode="0&quot;  &quot;"/>
+    <numFmt numFmtId="165" formatCode="00000000&quot;   &quot;"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0&quot;  &quot;"/>
+    <numFmt numFmtId="168" formatCode="000"/>
     <numFmt numFmtId="169" formatCode="0&quot; &quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -873,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -954,7 +1059,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -972,6 +1077,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -981,7 +1089,7 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1074,7 +1182,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1086,10 +1194,13 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1425,11 +1536,9 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:AA89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ21" sqref="AJ21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1477,43 +1586,43 @@
       <c r="X3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="48">
+      <c r="Y3" s="49">
         <v>330213</v>
       </c>
-      <c r="Z3" s="48"/>
+      <c r="Z3" s="49"/>
     </row>
     <row r="4" spans="2:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="50">
+      <c r="Y4" s="51">
         <v>23047275</v>
       </c>
-      <c r="Z4" s="50"/>
+      <c r="Z4" s="51"/>
     </row>
     <row r="5" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
@@ -1543,17 +1652,17 @@
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51" t="s">
+      <c r="H6" s="52"/>
+      <c r="I6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3" t="s">
         <v>8</v>
@@ -1567,17 +1676,17 @@
       <c r="F7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="52">
-        <v>1079</v>
-      </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53" t="s">
+      <c r="G7" s="53">
+        <v>1078</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
     </row>
     <row r="8" spans="2:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="12" t="s">
@@ -1621,24 +1730,24 @@
       <c r="Z10" s="14"/>
     </row>
     <row r="11" spans="2:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1646,12 +1755,12 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="51" t="s">
+      <c r="S11" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
       <c r="W11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1660,22 +1769,22 @@
       <c r="Z11" s="14"/>
     </row>
     <row r="12" spans="2:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
       <c r="N12" s="18"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
@@ -1698,226 +1807,226 @@
       </c>
     </row>
     <row r="14" spans="2:27" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57" t="s">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="56" t="s">
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56" t="s">
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="57" t="s">
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
     </row>
     <row r="15" spans="2:27" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57" t="s">
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="57" t="s">
+      <c r="H15" s="59"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="57" t="s">
+      <c r="M15" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="57"/>
-      <c r="O15" s="56" t="s">
+      <c r="N15" s="58"/>
+      <c r="O15" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56" t="s">
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="65" t="s">
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="Y15" s="57" t="s">
+      <c r="Y15" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
     </row>
     <row r="16" spans="2:27" s="22" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="63"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="64"/>
       <c r="O16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="56" t="s">
+      <c r="P16" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56" t="s">
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56" t="s">
+      <c r="U16" s="57"/>
+      <c r="V16" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="W16" s="56"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="60"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="61"/>
     </row>
     <row r="17" spans="1:27" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25"/>
-      <c r="B17" s="66">
+      <c r="B17" s="67">
         <v>1</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="27">
         <v>2</v>
       </c>
-      <c r="H17" s="66">
+      <c r="H17" s="67">
         <v>3</v>
       </c>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
       <c r="L17" s="26">
         <v>4</v>
       </c>
-      <c r="M17" s="67">
+      <c r="M17" s="68">
         <v>5</v>
       </c>
-      <c r="N17" s="67"/>
+      <c r="N17" s="68"/>
       <c r="O17" s="27">
         <v>6</v>
       </c>
-      <c r="P17" s="67">
+      <c r="P17" s="68">
         <v>7</v>
       </c>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67">
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68">
         <v>8</v>
       </c>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67">
+      <c r="U17" s="68"/>
+      <c r="V17" s="68">
         <v>9</v>
       </c>
-      <c r="W17" s="67"/>
+      <c r="W17" s="68"/>
       <c r="X17" s="27">
         <v>10</v>
       </c>
-      <c r="Y17" s="67">
+      <c r="Y17" s="68">
         <v>11</v>
       </c>
-      <c r="Z17" s="67"/>
-      <c r="AA17" s="67"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
     </row>
     <row r="18" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="28" t="s">
-        <v>40</v>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="28">
+        <v>4408</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
       <c r="K18" s="31"/>
       <c r="L18" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="70">
+        <v>167</v>
+      </c>
+      <c r="N18" s="70"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="71">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="37">
+        <v>1089837.04</v>
+      </c>
+      <c r="Y18" s="72">
+        <v>2179674.08</v>
+      </c>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+    </row>
+    <row r="19" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="69">
-        <v>113</v>
-      </c>
-      <c r="N18" s="69"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="70">
-        <v>50.1</v>
-      </c>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="36">
-        <v>44642.86</v>
-      </c>
-      <c r="Y18" s="71">
-        <v>2236607.14</v>
-      </c>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-    </row>
-    <row r="19" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="68" t="s">
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="38" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="37">
-        <v>2911</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="30"/>
@@ -1926,207 +2035,207 @@
       <c r="L19" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="72">
-        <v>0</v>
-      </c>
-      <c r="N19" s="72"/>
+      <c r="M19" s="73">
+        <v>7</v>
+      </c>
+      <c r="N19" s="73"/>
       <c r="O19" s="33"/>
-      <c r="P19" s="70">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="36">
-        <v>1079661.53</v>
-      </c>
-      <c r="Y19" s="71">
-        <v>3238984.59</v>
-      </c>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="71"/>
+      <c r="P19" s="71">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="37">
+        <v>204347.83</v>
+      </c>
+      <c r="Y19" s="72">
+        <v>1430434.81</v>
+      </c>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
     </row>
     <row r="20" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="28" t="s">
-        <v>45</v>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="28">
+        <v>2907</v>
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
       <c r="K20" s="31"/>
       <c r="L20" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="72">
+        <v>45</v>
+      </c>
+      <c r="M20" s="74">
         <v>0</v>
       </c>
-      <c r="N20" s="72"/>
+      <c r="N20" s="74"/>
       <c r="O20" s="33"/>
-      <c r="P20" s="70">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="36">
-        <v>120655.4</v>
-      </c>
-      <c r="Y20" s="71">
-        <v>965243.16</v>
-      </c>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
+      <c r="P20" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="37">
+        <v>5993330.21</v>
+      </c>
+      <c r="Y20" s="72">
+        <v>5993330.21</v>
+      </c>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
     </row>
     <row r="21" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="28" t="s">
-        <v>47</v>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="28">
+        <v>5128</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
       <c r="K21" s="31"/>
       <c r="L21" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="69">
-        <v>796</v>
-      </c>
-      <c r="N21" s="69"/>
+        <v>47</v>
+      </c>
+      <c r="M21" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="75"/>
       <c r="O21" s="33"/>
-      <c r="P21" s="70">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="36">
-        <v>172703.37</v>
-      </c>
-      <c r="Y21" s="71">
-        <v>6735431.4500000002</v>
-      </c>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
+      <c r="P21" s="71">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="37">
+        <v>49875.38</v>
+      </c>
+      <c r="Y21" s="72">
+        <v>249376.92</v>
+      </c>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="72"/>
     </row>
     <row r="22" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="28" t="s">
+      <c r="B22" s="69" t="s">
         <v>49</v>
+      </c>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="38" t="s">
+        <v>50</v>
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
       <c r="K22" s="31"/>
       <c r="L22" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="M22" s="69">
+        <v>45</v>
+      </c>
+      <c r="M22" s="70">
         <v>796</v>
       </c>
-      <c r="N22" s="69"/>
+      <c r="N22" s="70"/>
       <c r="O22" s="33"/>
-      <c r="P22" s="70">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="36">
-        <v>13999</v>
-      </c>
-      <c r="Y22" s="71">
-        <v>41997</v>
-      </c>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
+      <c r="P22" s="71">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="37">
+        <v>114891.86</v>
+      </c>
+      <c r="Y22" s="72">
+        <v>804243</v>
+      </c>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
     </row>
     <row r="23" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="28" t="s">
+      <c r="B23" s="69" t="s">
         <v>51</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="38" t="s">
+        <v>52</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
       <c r="K23" s="31"/>
       <c r="L23" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" s="69">
-        <v>166</v>
-      </c>
-      <c r="N23" s="69"/>
+        <v>40</v>
+      </c>
+      <c r="M23" s="70">
+        <v>167</v>
+      </c>
+      <c r="N23" s="70"/>
       <c r="O23" s="33"/>
-      <c r="P23" s="70">
-        <v>30</v>
-      </c>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="36">
-        <v>19580</v>
-      </c>
-      <c r="Y23" s="71">
-        <v>587400</v>
-      </c>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
+      <c r="P23" s="71">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="37">
+        <v>143469.57</v>
+      </c>
+      <c r="Y23" s="72">
+        <v>1721634.79</v>
+      </c>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="72"/>
     </row>
     <row r="24" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="28" t="s">
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="38" t="s">
         <v>54</v>
       </c>
       <c r="H24" s="29"/>
@@ -2134,798 +2243,798 @@
       <c r="J24" s="30"/>
       <c r="K24" s="31"/>
       <c r="L24" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="M24" s="69">
+        <v>45</v>
+      </c>
+      <c r="M24" s="70">
         <v>796</v>
       </c>
-      <c r="N24" s="69"/>
+      <c r="N24" s="70"/>
       <c r="O24" s="33"/>
-      <c r="P24" s="70">
-        <v>7</v>
-      </c>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="36">
-        <v>6086.96</v>
-      </c>
-      <c r="Y24" s="71">
-        <v>42608.69</v>
-      </c>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
+      <c r="P24" s="71">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="37">
+        <v>4008925</v>
+      </c>
+      <c r="Y24" s="72">
+        <v>12026775</v>
+      </c>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
     </row>
     <row r="25" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="28" t="s">
-        <v>56</v>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="28">
+        <v>5181</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
       <c r="K25" s="31"/>
       <c r="L25" s="32" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M25" s="73">
         <v>5</v>
       </c>
       <c r="N25" s="73"/>
       <c r="O25" s="33"/>
-      <c r="P25" s="70">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="36">
-        <v>423615.01</v>
-      </c>
-      <c r="Y25" s="71">
-        <v>2118075.06</v>
-      </c>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="71"/>
+      <c r="P25" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="37">
+        <v>139130.43</v>
+      </c>
+      <c r="Y25" s="72">
+        <v>208695.65</v>
+      </c>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
     </row>
     <row r="26" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="37">
-        <v>1435</v>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="28">
+        <v>5182</v>
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
       <c r="K26" s="31"/>
       <c r="L26" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="M26" s="72">
-        <v>0</v>
-      </c>
-      <c r="N26" s="72"/>
+        <v>56</v>
+      </c>
+      <c r="M26" s="73">
+        <v>5</v>
+      </c>
+      <c r="N26" s="73"/>
       <c r="O26" s="33"/>
-      <c r="P26" s="70">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="36">
-        <v>8767.02</v>
-      </c>
-      <c r="Y26" s="71">
-        <v>43835.09</v>
-      </c>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="71"/>
+      <c r="P26" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="37">
+        <v>139130.44</v>
+      </c>
+      <c r="Y26" s="72">
+        <v>69565.22</v>
+      </c>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="72"/>
     </row>
     <row r="27" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="28" t="s">
-        <v>59</v>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="28">
+        <v>5180</v>
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
       <c r="K27" s="31"/>
       <c r="L27" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M27" s="73">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N27" s="73"/>
       <c r="O27" s="33"/>
-      <c r="P27" s="70">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="36">
-        <v>39950</v>
-      </c>
-      <c r="Y27" s="71">
-        <v>79900</v>
-      </c>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="71"/>
+      <c r="P27" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="37">
+        <v>139130.44</v>
+      </c>
+      <c r="Y27" s="72">
+        <v>69565.22</v>
+      </c>
+      <c r="Z27" s="72"/>
+      <c r="AA27" s="72"/>
     </row>
     <row r="28" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="37">
-        <v>5230</v>
+      <c r="B28" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="28">
+        <v>5179</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
       <c r="K28" s="31"/>
       <c r="L28" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="M28" s="69">
-        <v>167</v>
-      </c>
-      <c r="N28" s="69"/>
+        <v>56</v>
+      </c>
+      <c r="M28" s="73">
+        <v>5</v>
+      </c>
+      <c r="N28" s="73"/>
       <c r="O28" s="33"/>
-      <c r="P28" s="70">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="70"/>
-      <c r="R28" s="70"/>
-      <c r="S28" s="70"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="36">
-        <v>674260.87</v>
-      </c>
-      <c r="Y28" s="71">
-        <v>1348521.74</v>
-      </c>
-      <c r="Z28" s="71"/>
-      <c r="AA28" s="71"/>
+      <c r="P28" s="71">
+        <v>0.7</v>
+      </c>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="37">
+        <v>139130.44</v>
+      </c>
+      <c r="Y28" s="72">
+        <v>97391.31</v>
+      </c>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="72"/>
     </row>
     <row r="29" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="28" t="s">
-        <v>64</v>
+      <c r="B29" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="28">
+        <v>1870</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
       <c r="K29" s="31"/>
       <c r="L29" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="M29" s="69">
-        <v>167</v>
-      </c>
-      <c r="N29" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="M29" s="74">
+        <v>1</v>
+      </c>
+      <c r="N29" s="74"/>
       <c r="O29" s="33"/>
-      <c r="P29" s="70">
+      <c r="P29" s="71">
         <v>1</v>
       </c>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="36">
-        <v>308598.26</v>
-      </c>
-      <c r="Y29" s="71">
-        <v>308598.26</v>
-      </c>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="37">
+        <v>9299963.5800000001</v>
+      </c>
+      <c r="Y29" s="72">
+        <v>9299963.5800000001</v>
+      </c>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
     </row>
     <row r="30" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="28" t="s">
-        <v>66</v>
+      <c r="B30" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="28">
+        <v>4983</v>
       </c>
       <c r="H30" s="29"/>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
       <c r="K30" s="31"/>
       <c r="L30" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M30" s="73">
-        <v>5</v>
-      </c>
-      <c r="N30" s="73"/>
+        <v>45</v>
+      </c>
+      <c r="M30" s="74">
+        <v>1</v>
+      </c>
+      <c r="N30" s="74"/>
       <c r="O30" s="33"/>
-      <c r="P30" s="70">
-        <v>52</v>
-      </c>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="70"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="36">
-        <v>135080</v>
-      </c>
-      <c r="Y30" s="71">
-        <v>7024160</v>
-      </c>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
+      <c r="P30" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="37">
+        <v>605597.39</v>
+      </c>
+      <c r="Y30" s="72">
+        <v>605597.39</v>
+      </c>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="72"/>
     </row>
     <row r="31" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="28" t="s">
-        <v>68</v>
+      <c r="B31" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="38" t="s">
+        <v>63</v>
       </c>
       <c r="H31" s="29"/>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
       <c r="K31" s="31"/>
       <c r="L31" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="M31" s="74">
-        <v>15</v>
-      </c>
-      <c r="N31" s="74"/>
+        <v>40</v>
+      </c>
+      <c r="M31" s="70">
+        <v>167</v>
+      </c>
+      <c r="N31" s="70"/>
       <c r="O31" s="33"/>
-      <c r="P31" s="70">
-        <v>300</v>
-      </c>
-      <c r="Q31" s="70"/>
-      <c r="R31" s="70"/>
-      <c r="S31" s="70"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="36">
-        <v>5762.89</v>
-      </c>
-      <c r="Y31" s="71">
-        <v>1728867.29</v>
-      </c>
-      <c r="Z31" s="71"/>
-      <c r="AA31" s="71"/>
+      <c r="P31" s="71">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="37">
+        <v>308598.26</v>
+      </c>
+      <c r="Y31" s="72">
+        <v>1234393.04</v>
+      </c>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="72"/>
     </row>
     <row r="32" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="28" t="s">
-        <v>71</v>
+      <c r="B32" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="28">
+        <v>2875</v>
       </c>
       <c r="H32" s="29"/>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="31"/>
       <c r="L32" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="M32" s="74">
-        <v>15</v>
-      </c>
-      <c r="N32" s="74"/>
+        <v>56</v>
+      </c>
+      <c r="M32" s="73">
+        <v>5</v>
+      </c>
+      <c r="N32" s="73"/>
       <c r="O32" s="33"/>
-      <c r="P32" s="70">
-        <v>80</v>
-      </c>
-      <c r="Q32" s="70"/>
-      <c r="R32" s="70"/>
-      <c r="S32" s="70"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="36">
-        <v>94631.679999999993</v>
-      </c>
-      <c r="Y32" s="71">
-        <v>7570534.5099999998</v>
-      </c>
-      <c r="Z32" s="71"/>
-      <c r="AA32" s="71"/>
+      <c r="P32" s="71">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="37">
+        <v>50455.16</v>
+      </c>
+      <c r="Y32" s="72">
+        <v>1210923.8400000001</v>
+      </c>
+      <c r="Z32" s="72"/>
+      <c r="AA32" s="72"/>
     </row>
     <row r="33" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="28" t="s">
-        <v>73</v>
+      <c r="B33" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="28">
+        <v>4840</v>
       </c>
       <c r="H33" s="29"/>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
       <c r="K33" s="31"/>
       <c r="L33" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="M33" s="69">
-        <v>113</v>
-      </c>
-      <c r="N33" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="M33" s="74">
+        <v>1</v>
+      </c>
+      <c r="N33" s="74"/>
       <c r="O33" s="33"/>
-      <c r="P33" s="70">
-        <v>37.5</v>
-      </c>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="36">
-        <v>44642.86</v>
-      </c>
-      <c r="Y33" s="71">
-        <v>1674107.15</v>
-      </c>
-      <c r="Z33" s="71"/>
-      <c r="AA33" s="71"/>
+      <c r="P33" s="71">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="37">
+        <v>141002.82999999999</v>
+      </c>
+      <c r="Y33" s="72">
+        <v>282005.65999999997</v>
+      </c>
+      <c r="Z33" s="72"/>
+      <c r="AA33" s="72"/>
     </row>
     <row r="34" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="37">
-        <v>4183</v>
+      <c r="B34" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="28">
+        <v>5026</v>
       </c>
       <c r="H34" s="29"/>
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
       <c r="K34" s="31"/>
       <c r="L34" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="M34" s="69">
-        <v>167</v>
-      </c>
-      <c r="N34" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="M34" s="74">
+        <v>1</v>
+      </c>
+      <c r="N34" s="74"/>
       <c r="O34" s="33"/>
-      <c r="P34" s="70">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="70"/>
-      <c r="R34" s="70"/>
-      <c r="S34" s="70"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="36">
-        <v>634782.61</v>
-      </c>
-      <c r="Y34" s="71">
-        <v>634782.61</v>
-      </c>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
+      <c r="P34" s="71">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="37">
+        <v>848987.39</v>
+      </c>
+      <c r="Y34" s="72">
+        <v>1697974.78</v>
+      </c>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="72"/>
     </row>
     <row r="35" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="28" t="s">
-        <v>76</v>
+      <c r="B35" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="38" t="s">
+        <v>68</v>
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="31"/>
       <c r="L35" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="M35" s="73">
-        <v>7</v>
-      </c>
-      <c r="N35" s="73"/>
+        <v>40</v>
+      </c>
+      <c r="M35" s="70">
+        <v>167</v>
+      </c>
+      <c r="N35" s="70"/>
       <c r="O35" s="33"/>
-      <c r="P35" s="70">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="70"/>
-      <c r="R35" s="70"/>
-      <c r="S35" s="70"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="36">
-        <v>204347.83</v>
-      </c>
-      <c r="Y35" s="71">
-        <v>408695.66</v>
-      </c>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="71"/>
+      <c r="P35" s="71">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="37">
+        <v>489000</v>
+      </c>
+      <c r="Y35" s="72">
+        <v>1956000</v>
+      </c>
+      <c r="Z35" s="72"/>
+      <c r="AA35" s="72"/>
     </row>
     <row r="36" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="28" t="s">
-        <v>78</v>
+      <c r="B36" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
       <c r="K36" s="31"/>
       <c r="L36" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="M36" s="73">
-        <v>7</v>
-      </c>
-      <c r="N36" s="73"/>
+        <v>45</v>
+      </c>
+      <c r="M36" s="70">
+        <v>796</v>
+      </c>
+      <c r="N36" s="70"/>
       <c r="O36" s="33"/>
-      <c r="P36" s="70">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="70"/>
-      <c r="R36" s="70"/>
-      <c r="S36" s="70"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="36">
-        <v>2000</v>
-      </c>
-      <c r="Y36" s="71">
-        <v>2000</v>
-      </c>
-      <c r="Z36" s="71"/>
-      <c r="AA36" s="71"/>
+      <c r="P36" s="71">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="37">
+        <v>640000</v>
+      </c>
+      <c r="Y36" s="72">
+        <v>1920000</v>
+      </c>
+      <c r="Z36" s="72"/>
+      <c r="AA36" s="72"/>
     </row>
     <row r="37" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="28" t="s">
-        <v>80</v>
+      <c r="B37" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
       <c r="K37" s="31"/>
       <c r="L37" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="M37" s="69">
-        <v>796</v>
-      </c>
-      <c r="N37" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="M37" s="74">
+        <v>0</v>
+      </c>
+      <c r="N37" s="74"/>
       <c r="O37" s="33"/>
-      <c r="P37" s="70">
-        <v>3</v>
-      </c>
-      <c r="Q37" s="70"/>
-      <c r="R37" s="70"/>
-      <c r="S37" s="70"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="36">
-        <v>240000</v>
-      </c>
-      <c r="Y37" s="71">
-        <v>720000</v>
-      </c>
-      <c r="Z37" s="71"/>
-      <c r="AA37" s="71"/>
+      <c r="P37" s="71">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="37">
+        <v>843848.67</v>
+      </c>
+      <c r="Y37" s="72">
+        <v>3375394.66</v>
+      </c>
+      <c r="Z37" s="72"/>
+      <c r="AA37" s="72"/>
     </row>
     <row r="38" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="28" t="s">
-        <v>82</v>
+      <c r="B38" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
       <c r="K38" s="31"/>
       <c r="L38" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="M38" s="69">
-        <v>796</v>
-      </c>
-      <c r="N38" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="M38" s="74">
+        <v>0</v>
+      </c>
+      <c r="N38" s="74"/>
       <c r="O38" s="33"/>
-      <c r="P38" s="70">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="70"/>
-      <c r="R38" s="70"/>
-      <c r="S38" s="70"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="36">
-        <v>60000</v>
-      </c>
-      <c r="Y38" s="71">
-        <v>180000</v>
-      </c>
-      <c r="Z38" s="71"/>
-      <c r="AA38" s="71"/>
+      <c r="P38" s="71">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="37">
+        <v>121555.77</v>
+      </c>
+      <c r="Y38" s="72">
+        <v>486223.06</v>
+      </c>
+      <c r="Z38" s="72"/>
+      <c r="AA38" s="72"/>
     </row>
     <row r="39" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="28" t="s">
-        <v>84</v>
+      <c r="B39" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="38" t="s">
+        <v>76</v>
       </c>
       <c r="H39" s="29"/>
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
       <c r="K39" s="31"/>
       <c r="L39" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="M39" s="69">
-        <v>796</v>
-      </c>
-      <c r="N39" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="M39" s="74">
+        <v>0</v>
+      </c>
+      <c r="N39" s="74"/>
       <c r="O39" s="33"/>
-      <c r="P39" s="70">
-        <v>3</v>
-      </c>
-      <c r="Q39" s="70"/>
-      <c r="R39" s="70"/>
-      <c r="S39" s="70"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="36">
-        <v>640000</v>
-      </c>
-      <c r="Y39" s="71">
-        <v>1920000</v>
-      </c>
-      <c r="Z39" s="71"/>
-      <c r="AA39" s="71"/>
+      <c r="P39" s="71">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="37">
+        <v>2678382.59</v>
+      </c>
+      <c r="Y39" s="72">
+        <v>10713530.359999999</v>
+      </c>
+      <c r="Z39" s="72"/>
+      <c r="AA39" s="72"/>
     </row>
     <row r="40" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="28" t="s">
-        <v>86</v>
+      <c r="B40" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="38" t="s">
+        <v>78</v>
       </c>
       <c r="H40" s="29"/>
       <c r="I40" s="30"/>
       <c r="J40" s="30"/>
       <c r="K40" s="31"/>
       <c r="L40" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="M40" s="73">
-        <v>7</v>
-      </c>
-      <c r="N40" s="73"/>
+        <v>45</v>
+      </c>
+      <c r="M40" s="74">
+        <v>0</v>
+      </c>
+      <c r="N40" s="74"/>
       <c r="O40" s="33"/>
-      <c r="P40" s="70">
-        <v>3</v>
-      </c>
-      <c r="Q40" s="70"/>
-      <c r="R40" s="70"/>
-      <c r="S40" s="70"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="36">
-        <v>112000</v>
-      </c>
-      <c r="Y40" s="71">
-        <v>336000</v>
-      </c>
-      <c r="Z40" s="71"/>
-      <c r="AA40" s="71"/>
+      <c r="P40" s="71">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="71"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="37">
+        <v>19393.509999999998</v>
+      </c>
+      <c r="Y40" s="72">
+        <v>77574.05</v>
+      </c>
+      <c r="Z40" s="72"/>
+      <c r="AA40" s="72"/>
     </row>
     <row r="41" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="28" t="s">
-        <v>88</v>
+      <c r="B41" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="38" t="s">
+        <v>80</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="30"/>
       <c r="J41" s="30"/>
       <c r="K41" s="31"/>
       <c r="L41" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="M41" s="69">
-        <v>796</v>
-      </c>
-      <c r="N41" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="M41" s="74">
+        <v>0</v>
+      </c>
+      <c r="N41" s="74"/>
       <c r="O41" s="33"/>
-      <c r="P41" s="70">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="70"/>
-      <c r="R41" s="70"/>
-      <c r="S41" s="70"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="36">
-        <v>59200</v>
-      </c>
-      <c r="Y41" s="71">
-        <v>177600</v>
-      </c>
-      <c r="Z41" s="71"/>
-      <c r="AA41" s="71"/>
+      <c r="P41" s="71">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="37">
+        <v>413035.64</v>
+      </c>
+      <c r="Y41" s="72">
+        <v>1652142.56</v>
+      </c>
+      <c r="Z41" s="72"/>
+      <c r="AA41" s="72"/>
     </row>
     <row r="42" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="28" t="s">
-        <v>90</v>
+      <c r="B42" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="38" t="s">
+        <v>82</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
       <c r="K42" s="31"/>
       <c r="L42" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="M42" s="69">
-        <v>113</v>
-      </c>
-      <c r="N42" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="M42" s="74">
+        <v>0</v>
+      </c>
+      <c r="N42" s="74"/>
       <c r="O42" s="33"/>
-      <c r="P42" s="70">
-        <v>7.88</v>
-      </c>
-      <c r="Q42" s="70"/>
-      <c r="R42" s="70"/>
-      <c r="S42" s="70"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="36">
-        <v>1140308.04</v>
-      </c>
-      <c r="Y42" s="71">
-        <v>8985627.3200000003</v>
-      </c>
-      <c r="Z42" s="71"/>
-      <c r="AA42" s="71"/>
+      <c r="P42" s="71">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="37">
+        <v>1222599.3500000001</v>
+      </c>
+      <c r="Y42" s="72">
+        <v>4890397.38</v>
+      </c>
+      <c r="Z42" s="72"/>
+      <c r="AA42" s="72"/>
     </row>
     <row r="43" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="37">
-        <v>1430</v>
+      <c r="B43" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="28">
+        <v>4189</v>
       </c>
       <c r="H43" s="29"/>
       <c r="I43" s="30"/>
@@ -2934,430 +3043,1822 @@
       <c r="L43" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="M43" s="72">
-        <v>0</v>
-      </c>
-      <c r="N43" s="72"/>
+      <c r="M43" s="73">
+        <v>7</v>
+      </c>
+      <c r="N43" s="73"/>
       <c r="O43" s="33"/>
-      <c r="P43" s="70">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="70"/>
-      <c r="R43" s="70"/>
-      <c r="S43" s="70"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="36">
-        <v>33800.550000000003</v>
-      </c>
-      <c r="Y43" s="71">
-        <v>67601.100000000006</v>
-      </c>
-      <c r="Z43" s="71"/>
-      <c r="AA43" s="71"/>
+      <c r="P43" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="37">
+        <v>173913.05</v>
+      </c>
+      <c r="Y43" s="72">
+        <v>173913.05</v>
+      </c>
+      <c r="Z43" s="72"/>
+      <c r="AA43" s="72"/>
     </row>
     <row r="44" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="28" t="s">
-        <v>93</v>
+      <c r="B44" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="38" t="s">
+        <v>85</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="30"/>
       <c r="J44" s="30"/>
       <c r="K44" s="31"/>
       <c r="L44" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M44" s="73">
-        <v>5</v>
-      </c>
-      <c r="N44" s="73"/>
+        <v>47</v>
+      </c>
+      <c r="M44" s="70">
+        <v>112</v>
+      </c>
+      <c r="N44" s="70"/>
       <c r="O44" s="33"/>
-      <c r="P44" s="70">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="70"/>
-      <c r="R44" s="70"/>
-      <c r="S44" s="70"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="36">
-        <v>135540</v>
-      </c>
-      <c r="Y44" s="71">
-        <v>677700</v>
-      </c>
-      <c r="Z44" s="71"/>
-      <c r="AA44" s="71"/>
+      <c r="P44" s="71">
+        <v>208</v>
+      </c>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="37">
+        <v>227020.39</v>
+      </c>
+      <c r="Y44" s="72">
+        <v>47220240.700000003</v>
+      </c>
+      <c r="Z44" s="72"/>
+      <c r="AA44" s="72"/>
     </row>
     <row r="45" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="28" t="s">
-        <v>95</v>
+      <c r="B45" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="28">
+        <v>5025</v>
       </c>
       <c r="H45" s="29"/>
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
       <c r="K45" s="31"/>
       <c r="L45" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M45" s="73">
-        <v>5</v>
-      </c>
-      <c r="N45" s="73"/>
+        <v>45</v>
+      </c>
+      <c r="M45" s="74">
+        <v>1</v>
+      </c>
+      <c r="N45" s="74"/>
       <c r="O45" s="33"/>
-      <c r="P45" s="70">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="70"/>
-      <c r="R45" s="70"/>
-      <c r="S45" s="70"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="36">
-        <v>19580</v>
-      </c>
-      <c r="Y45" s="71">
-        <v>97900</v>
-      </c>
-      <c r="Z45" s="71"/>
-      <c r="AA45" s="71"/>
+      <c r="P45" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="37">
+        <v>675402.61</v>
+      </c>
+      <c r="Y45" s="72">
+        <v>675402.61</v>
+      </c>
+      <c r="Z45" s="72"/>
+      <c r="AA45" s="72"/>
     </row>
     <row r="46" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="37">
-        <v>4189</v>
+      <c r="B46" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="28">
+        <v>5030</v>
       </c>
       <c r="H46" s="29"/>
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
       <c r="K46" s="31"/>
       <c r="L46" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="M46" s="73">
-        <v>7</v>
-      </c>
-      <c r="N46" s="73"/>
+        <v>45</v>
+      </c>
+      <c r="M46" s="74">
+        <v>1</v>
+      </c>
+      <c r="N46" s="74"/>
       <c r="O46" s="33"/>
-      <c r="P46" s="70">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="70"/>
-      <c r="R46" s="70"/>
-      <c r="S46" s="70"/>
-      <c r="T46" s="34"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="34"/>
-      <c r="W46" s="35"/>
-      <c r="X46" s="36">
-        <v>173913.04</v>
-      </c>
-      <c r="Y46" s="71">
-        <v>173913.04</v>
-      </c>
-      <c r="Z46" s="71"/>
-      <c r="AA46" s="71"/>
+      <c r="P46" s="71">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="37">
+        <v>2430372.61</v>
+      </c>
+      <c r="Y46" s="72">
+        <v>4860745.22</v>
+      </c>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
     </row>
     <row r="47" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="28" t="s">
-        <v>98</v>
+      <c r="B47" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="38" t="s">
+        <v>89</v>
       </c>
       <c r="H47" s="29"/>
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
       <c r="K47" s="31"/>
       <c r="L47" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="M47" s="69">
-        <v>167</v>
-      </c>
-      <c r="N47" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="M47" s="74">
+        <v>1</v>
+      </c>
+      <c r="N47" s="74"/>
       <c r="O47" s="33"/>
-      <c r="P47" s="70">
+      <c r="P47" s="71">
         <v>1</v>
       </c>
-      <c r="Q47" s="70"/>
-      <c r="R47" s="70"/>
-      <c r="S47" s="70"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="36">
-        <v>489000</v>
-      </c>
-      <c r="Y47" s="71">
-        <v>489000</v>
-      </c>
-      <c r="Z47" s="71"/>
-      <c r="AA47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="37">
+        <v>11809950.800000001</v>
+      </c>
+      <c r="Y47" s="72">
+        <v>11809950.800000001</v>
+      </c>
+      <c r="Z47" s="72"/>
+      <c r="AA47" s="72"/>
     </row>
     <row r="48" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="28" t="s">
-        <v>100</v>
+      <c r="B48" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="H48" s="29"/>
       <c r="I48" s="30"/>
       <c r="J48" s="30"/>
       <c r="K48" s="31"/>
       <c r="L48" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M48" s="70">
+        <v>167</v>
+      </c>
+      <c r="N48" s="70"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="37">
+        <v>396527.68</v>
+      </c>
+      <c r="Y48" s="72">
+        <v>396527.68</v>
+      </c>
+      <c r="Z48" s="72"/>
+      <c r="AA48" s="72"/>
+    </row>
+    <row r="49" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" s="29"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M49" s="70">
+        <v>796</v>
+      </c>
+      <c r="N49" s="70"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="71">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="37">
+        <v>60000</v>
+      </c>
+      <c r="Y49" s="72">
+        <v>120000</v>
+      </c>
+      <c r="Z49" s="72"/>
+      <c r="AA49" s="72"/>
+    </row>
+    <row r="50" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H50" s="29"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M50" s="70">
+        <v>796</v>
+      </c>
+      <c r="N50" s="70"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="71">
+        <v>3</v>
+      </c>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="71"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="37">
+        <v>59200</v>
+      </c>
+      <c r="Y50" s="72">
+        <v>177600</v>
+      </c>
+      <c r="Z50" s="72"/>
+      <c r="AA50" s="72"/>
+    </row>
+    <row r="51" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" s="29"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="M48" s="69">
+      <c r="M51" s="73">
+        <v>7</v>
+      </c>
+      <c r="N51" s="73"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="71">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="37">
+        <v>112000</v>
+      </c>
+      <c r="Y51" s="72">
+        <v>224000</v>
+      </c>
+      <c r="Z51" s="72"/>
+      <c r="AA51" s="72"/>
+    </row>
+    <row r="52" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="H52" s="29"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="M52" s="73">
+        <v>7</v>
+      </c>
+      <c r="N52" s="73"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="71"/>
+      <c r="S52" s="71"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="36"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="36"/>
+      <c r="X52" s="37">
+        <v>2000</v>
+      </c>
+      <c r="Y52" s="72">
+        <v>2000</v>
+      </c>
+      <c r="Z52" s="72"/>
+      <c r="AA52" s="72"/>
+    </row>
+    <row r="53" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="H53" s="29"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="M53" s="76">
+        <v>16</v>
+      </c>
+      <c r="N53" s="76"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="71">
+        <v>4</v>
+      </c>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="71"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="36"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="36"/>
+      <c r="X53" s="37">
+        <v>60869.57</v>
+      </c>
+      <c r="Y53" s="72">
+        <v>243478.26</v>
+      </c>
+      <c r="Z53" s="72"/>
+      <c r="AA53" s="72"/>
+    </row>
+    <row r="54" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="28">
+        <v>4784</v>
+      </c>
+      <c r="H54" s="29"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M54" s="74">
+        <v>1</v>
+      </c>
+      <c r="N54" s="74"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="71"/>
+      <c r="R54" s="71"/>
+      <c r="S54" s="71"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="36"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="37">
+        <v>163107.95000000001</v>
+      </c>
+      <c r="Y54" s="72">
+        <v>163107.95000000001</v>
+      </c>
+      <c r="Z54" s="72"/>
+      <c r="AA54" s="72"/>
+    </row>
+    <row r="55" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="28">
+        <v>3610</v>
+      </c>
+      <c r="H55" s="29"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M55" s="74">
+        <v>1</v>
+      </c>
+      <c r="N55" s="74"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="71"/>
+      <c r="R55" s="71"/>
+      <c r="S55" s="71"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="37">
+        <v>154462.79</v>
+      </c>
+      <c r="Y55" s="72">
+        <v>154462.79</v>
+      </c>
+      <c r="Z55" s="72"/>
+      <c r="AA55" s="72"/>
+    </row>
+    <row r="56" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H56" s="29"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M56" s="70">
         <v>796</v>
       </c>
-      <c r="N48" s="69"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="70">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="70"/>
-      <c r="S48" s="70"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="36">
-        <v>10434.780000000001</v>
-      </c>
-      <c r="Y48" s="71">
-        <v>104347.83</v>
-      </c>
-      <c r="Z48" s="71"/>
-      <c r="AA48" s="71"/>
-    </row>
-    <row r="49" spans="2:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="P49" s="75">
-        <v>675.48</v>
-      </c>
-      <c r="Q49" s="75"/>
-      <c r="R49" s="75"/>
-      <c r="S49" s="75"/>
-      <c r="T49" s="40"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="40"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y49" s="76">
-        <v>50720038.689999998</v>
-      </c>
-      <c r="Z49" s="76"/>
-      <c r="AA49" s="76"/>
-    </row>
-    <row r="50" spans="2:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O50" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="P50" s="70">
-        <v>675.48</v>
-      </c>
-      <c r="Q50" s="70"/>
-      <c r="R50" s="70"/>
-      <c r="S50" s="70"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="34"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y50" s="77">
-        <v>50720038.689999998</v>
-      </c>
-      <c r="Z50" s="77"/>
-      <c r="AA50" s="77"/>
-    </row>
-    <row r="52" spans="2:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="K52" s="46" t="s">
+      <c r="N56" s="70"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="71"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="71"/>
+      <c r="T56" s="35"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="35"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="37">
+        <v>3242640</v>
+      </c>
+      <c r="Y56" s="72">
+        <v>3242640</v>
+      </c>
+      <c r="Z56" s="72"/>
+      <c r="AA56" s="72"/>
+    </row>
+    <row r="57" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="H57" s="29"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="M57" s="73">
+        <v>5</v>
+      </c>
+      <c r="N57" s="73"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="71">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="71"/>
+      <c r="S57" s="71"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="37">
+        <v>485638.56</v>
+      </c>
+      <c r="Y57" s="72">
+        <v>2428192.7799999998</v>
+      </c>
+      <c r="Z57" s="72"/>
+      <c r="AA57" s="72"/>
+    </row>
+    <row r="58" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="28">
+        <v>4852</v>
+      </c>
+      <c r="H58" s="29"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M58" s="74">
+        <v>1</v>
+      </c>
+      <c r="N58" s="74"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="71">
+        <v>14</v>
+      </c>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="71"/>
+      <c r="S58" s="71"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="36"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="36"/>
+      <c r="X58" s="37">
+        <v>123644.35</v>
+      </c>
+      <c r="Y58" s="72">
+        <v>1731020.9</v>
+      </c>
+      <c r="Z58" s="72"/>
+      <c r="AA58" s="72"/>
+    </row>
+    <row r="59" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="H59" s="29"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M59" s="70">
+        <v>796</v>
+      </c>
+      <c r="N59" s="70"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="71">
+        <v>50</v>
+      </c>
+      <c r="Q59" s="71"/>
+      <c r="R59" s="71"/>
+      <c r="S59" s="71"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="36"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="36"/>
+      <c r="X59" s="37">
+        <v>6086.96</v>
+      </c>
+      <c r="Y59" s="72">
+        <v>304347.83</v>
+      </c>
+      <c r="Z59" s="72"/>
+      <c r="AA59" s="72"/>
+    </row>
+    <row r="60" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="H60" s="29"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M60" s="70">
+        <v>796</v>
+      </c>
+      <c r="N60" s="70"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="71"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="36"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="37">
+        <v>1322500</v>
+      </c>
+      <c r="Y60" s="72">
+        <v>1322500</v>
+      </c>
+      <c r="Z60" s="72"/>
+      <c r="AA60" s="72"/>
+    </row>
+    <row r="61" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="28">
+        <v>4847</v>
+      </c>
+      <c r="H61" s="29"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M61" s="74">
+        <v>1</v>
+      </c>
+      <c r="N61" s="74"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="37">
+        <v>81872.61</v>
+      </c>
+      <c r="Y61" s="72">
+        <v>81872.61</v>
+      </c>
+      <c r="Z61" s="72"/>
+      <c r="AA61" s="72"/>
+    </row>
+    <row r="62" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="28">
+        <v>4867</v>
+      </c>
+      <c r="H62" s="29"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M62" s="74">
+        <v>1</v>
+      </c>
+      <c r="N62" s="74"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="71">
+        <v>2</v>
+      </c>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="71"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="37">
+        <v>251930</v>
+      </c>
+      <c r="Y62" s="72">
+        <v>503860</v>
+      </c>
+      <c r="Z62" s="72"/>
+      <c r="AA62" s="72"/>
+    </row>
+    <row r="63" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="28">
+        <v>5135</v>
+      </c>
+      <c r="H63" s="29"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="M63" s="73">
+        <v>5</v>
+      </c>
+      <c r="N63" s="73"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="71"/>
+      <c r="S63" s="71"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="36"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="36"/>
+      <c r="X63" s="37">
+        <v>161066.29999999999</v>
+      </c>
+      <c r="Y63" s="72">
+        <v>161066.29999999999</v>
+      </c>
+      <c r="Z63" s="72"/>
+      <c r="AA63" s="72"/>
+    </row>
+    <row r="64" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="H64" s="29"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M64" s="70">
+        <v>796</v>
+      </c>
+      <c r="N64" s="70"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="71">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="71"/>
+      <c r="R64" s="71"/>
+      <c r="S64" s="71"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="37">
+        <v>5652.17</v>
+      </c>
+      <c r="Y64" s="72">
+        <v>113043.48</v>
+      </c>
+      <c r="Z64" s="72"/>
+      <c r="AA64" s="72"/>
+    </row>
+    <row r="65" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="28">
+        <v>5126</v>
+      </c>
+      <c r="H65" s="29"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="M65" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="N65" s="75"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="71">
+        <v>4</v>
+      </c>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="71"/>
+      <c r="S65" s="71"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="36"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="36"/>
+      <c r="X65" s="37">
+        <v>46079.69</v>
+      </c>
+      <c r="Y65" s="72">
+        <v>184318.77</v>
+      </c>
+      <c r="Z65" s="72"/>
+      <c r="AA65" s="72"/>
+    </row>
+    <row r="66" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="28">
+        <v>5044</v>
+      </c>
+      <c r="H66" s="29"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M66" s="74">
+        <v>1</v>
+      </c>
+      <c r="N66" s="74"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="71"/>
+      <c r="R66" s="71"/>
+      <c r="S66" s="71"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="36"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="37">
+        <v>119745.65</v>
+      </c>
+      <c r="Y66" s="72">
+        <v>119745.65</v>
+      </c>
+      <c r="Z66" s="72"/>
+      <c r="AA66" s="72"/>
+    </row>
+    <row r="67" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="28">
+        <v>5175</v>
+      </c>
+      <c r="H67" s="29"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="M67" s="73">
+        <v>5</v>
+      </c>
+      <c r="N67" s="73"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="71">
+        <v>0.71</v>
+      </c>
+      <c r="Q67" s="71"/>
+      <c r="R67" s="71"/>
+      <c r="S67" s="71"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="36"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="36"/>
+      <c r="X67" s="37">
+        <v>2086956.52</v>
+      </c>
+      <c r="Y67" s="72">
+        <v>1481739.13</v>
+      </c>
+      <c r="Z67" s="72"/>
+      <c r="AA67" s="72"/>
+    </row>
+    <row r="68" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="28">
+        <v>5080</v>
+      </c>
+      <c r="H68" s="29"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M68" s="74">
+        <v>1</v>
+      </c>
+      <c r="N68" s="74"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="71">
+        <v>2</v>
+      </c>
+      <c r="Q68" s="71"/>
+      <c r="R68" s="71"/>
+      <c r="S68" s="71"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="36"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="37">
+        <v>11881.74</v>
+      </c>
+      <c r="Y68" s="72">
+        <v>23763.48</v>
+      </c>
+      <c r="Z68" s="72"/>
+      <c r="AA68" s="72"/>
+    </row>
+    <row r="69" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="28">
+        <v>5083</v>
+      </c>
+      <c r="H69" s="29"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M69" s="74">
+        <v>1</v>
+      </c>
+      <c r="N69" s="74"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="71">
+        <v>2</v>
+      </c>
+      <c r="Q69" s="71"/>
+      <c r="R69" s="71"/>
+      <c r="S69" s="71"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="36"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="36"/>
+      <c r="X69" s="37">
+        <v>18565.22</v>
+      </c>
+      <c r="Y69" s="72">
+        <v>37130.44</v>
+      </c>
+      <c r="Z69" s="72"/>
+      <c r="AA69" s="72"/>
+    </row>
+    <row r="70" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="H70" s="29"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="M70" s="70">
+        <v>113</v>
+      </c>
+      <c r="N70" s="70"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="71">
+        <v>8</v>
+      </c>
+      <c r="Q70" s="71"/>
+      <c r="R70" s="71"/>
+      <c r="S70" s="71"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="36"/>
+      <c r="V70" s="35"/>
+      <c r="W70" s="36"/>
+      <c r="X70" s="37">
+        <v>44642.86</v>
+      </c>
+      <c r="Y70" s="72">
+        <v>357142.86</v>
+      </c>
+      <c r="Z70" s="72"/>
+      <c r="AA70" s="72"/>
+    </row>
+    <row r="71" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="H71" s="29"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M71" s="70">
+        <v>796</v>
+      </c>
+      <c r="N71" s="70"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="71">
+        <v>25</v>
+      </c>
+      <c r="Q71" s="71"/>
+      <c r="R71" s="71"/>
+      <c r="S71" s="71"/>
+      <c r="T71" s="35"/>
+      <c r="U71" s="36"/>
+      <c r="V71" s="35"/>
+      <c r="W71" s="36"/>
+      <c r="X71" s="37">
+        <v>9043.48</v>
+      </c>
+      <c r="Y71" s="72">
+        <v>226086.96</v>
+      </c>
+      <c r="Z71" s="72"/>
+      <c r="AA71" s="72"/>
+    </row>
+    <row r="72" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H72" s="29"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M72" s="70">
+        <v>796</v>
+      </c>
+      <c r="N72" s="70"/>
+      <c r="O72" s="33"/>
+      <c r="P72" s="71">
+        <v>25</v>
+      </c>
+      <c r="Q72" s="71"/>
+      <c r="R72" s="71"/>
+      <c r="S72" s="71"/>
+      <c r="T72" s="35"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="35"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="37">
+        <v>6695.65</v>
+      </c>
+      <c r="Y72" s="72">
+        <v>167391.31</v>
+      </c>
+      <c r="Z72" s="72"/>
+      <c r="AA72" s="72"/>
+    </row>
+    <row r="73" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="28">
+        <v>4980</v>
+      </c>
+      <c r="H73" s="29"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M73" s="74">
+        <v>1</v>
+      </c>
+      <c r="N73" s="74"/>
+      <c r="O73" s="34">
+        <v>1</v>
+      </c>
+      <c r="P73" s="71">
+        <v>4</v>
+      </c>
+      <c r="Q73" s="71"/>
+      <c r="R73" s="71"/>
+      <c r="S73" s="71"/>
+      <c r="T73" s="35"/>
+      <c r="U73" s="36"/>
+      <c r="V73" s="35"/>
+      <c r="W73" s="36"/>
+      <c r="X73" s="37">
+        <v>497640.65</v>
+      </c>
+      <c r="Y73" s="72">
+        <v>1990562.6</v>
+      </c>
+      <c r="Z73" s="72"/>
+      <c r="AA73" s="72"/>
+    </row>
+    <row r="74" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="28">
+        <v>4986</v>
+      </c>
+      <c r="H74" s="29"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M74" s="74">
+        <v>1</v>
+      </c>
+      <c r="N74" s="74"/>
+      <c r="O74" s="34">
+        <v>1</v>
+      </c>
+      <c r="P74" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="71"/>
+      <c r="R74" s="71"/>
+      <c r="S74" s="71"/>
+      <c r="T74" s="35"/>
+      <c r="U74" s="36"/>
+      <c r="V74" s="35"/>
+      <c r="W74" s="36"/>
+      <c r="X74" s="37">
+        <v>787165.22</v>
+      </c>
+      <c r="Y74" s="72">
+        <v>787165.22</v>
+      </c>
+      <c r="Z74" s="72"/>
+      <c r="AA74" s="72"/>
+    </row>
+    <row r="75" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="28">
+        <v>4973</v>
+      </c>
+      <c r="H75" s="29"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M75" s="74">
+        <v>1</v>
+      </c>
+      <c r="N75" s="74"/>
+      <c r="O75" s="34">
+        <v>1</v>
+      </c>
+      <c r="P75" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="71"/>
+      <c r="R75" s="71"/>
+      <c r="S75" s="71"/>
+      <c r="T75" s="35"/>
+      <c r="U75" s="36"/>
+      <c r="V75" s="35"/>
+      <c r="W75" s="36"/>
+      <c r="X75" s="37">
+        <v>293701.74</v>
+      </c>
+      <c r="Y75" s="72">
+        <v>293701.74</v>
+      </c>
+      <c r="Z75" s="72"/>
+      <c r="AA75" s="72"/>
+    </row>
+    <row r="76" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H76" s="29"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M76" s="70">
+        <v>796</v>
+      </c>
+      <c r="N76" s="70"/>
+      <c r="O76" s="34">
+        <v>1</v>
+      </c>
+      <c r="P76" s="71">
+        <v>15</v>
+      </c>
+      <c r="Q76" s="71"/>
+      <c r="R76" s="71"/>
+      <c r="S76" s="71"/>
+      <c r="T76" s="35"/>
+      <c r="U76" s="36"/>
+      <c r="V76" s="35"/>
+      <c r="W76" s="36"/>
+      <c r="X76" s="37">
+        <v>31700</v>
+      </c>
+      <c r="Y76" s="72">
+        <v>475500</v>
+      </c>
+      <c r="Z76" s="72"/>
+      <c r="AA76" s="72"/>
+    </row>
+    <row r="77" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="R52" t="s">
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="38" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="53" spans="2:27" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="F53" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="K53" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-    </row>
-    <row r="55" spans="2:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" t="s">
-        <v>112</v>
-      </c>
-      <c r="R55" s="80">
-        <v>69</v>
-      </c>
-      <c r="S55" s="80"/>
-      <c r="T55" s="80"/>
-      <c r="U55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="2:27" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="47"/>
-      <c r="P56" s="47"/>
-    </row>
-    <row r="58" spans="2:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="K58" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46"/>
-      <c r="O58" s="46"/>
-      <c r="P58" s="46"/>
-    </row>
-    <row r="59" spans="2:27" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="F59" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="K59" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M77" s="70">
+        <v>796</v>
+      </c>
+      <c r="N77" s="70"/>
+      <c r="O77" s="34">
+        <v>1</v>
+      </c>
+      <c r="P77" s="71">
+        <v>2</v>
+      </c>
+      <c r="Q77" s="71"/>
+      <c r="R77" s="71"/>
+      <c r="S77" s="71"/>
+      <c r="T77" s="35"/>
+      <c r="U77" s="36"/>
+      <c r="V77" s="35"/>
+      <c r="W77" s="36"/>
+      <c r="X77" s="37">
+        <v>1621320</v>
+      </c>
+      <c r="Y77" s="72">
+        <v>3242640</v>
+      </c>
+      <c r="Z77" s="72"/>
+      <c r="AA77" s="72"/>
+    </row>
+    <row r="78" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="69"/>
+      <c r="G78" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H78" s="29"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M78" s="70">
+        <v>796</v>
+      </c>
+      <c r="N78" s="70"/>
+      <c r="O78" s="34">
+        <v>1</v>
+      </c>
+      <c r="P78" s="71">
+        <v>4</v>
+      </c>
+      <c r="Q78" s="71"/>
+      <c r="R78" s="71"/>
+      <c r="S78" s="71"/>
+      <c r="T78" s="35"/>
+      <c r="U78" s="36"/>
+      <c r="V78" s="35"/>
+      <c r="W78" s="36"/>
+      <c r="X78" s="37">
+        <v>201060.75</v>
+      </c>
+      <c r="Y78" s="72">
+        <v>804243</v>
+      </c>
+      <c r="Z78" s="72"/>
+      <c r="AA78" s="72"/>
+    </row>
+    <row r="79" spans="2:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G79" s="39"/>
+      <c r="M79" s="39"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="P79" s="77">
+        <v>522.91</v>
+      </c>
+      <c r="Q79" s="77"/>
+      <c r="R79" s="77"/>
+      <c r="S79" s="77"/>
+      <c r="T79" s="41"/>
+      <c r="U79" s="42"/>
+      <c r="V79" s="41"/>
+      <c r="W79" s="42"/>
+      <c r="X79" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y79" s="78">
+        <v>150553910.69</v>
+      </c>
+      <c r="Z79" s="78"/>
+      <c r="AA79" s="78"/>
+    </row>
+    <row r="80" spans="2:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O80" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="P80" s="71">
+        <v>522.91</v>
+      </c>
+      <c r="Q80" s="71"/>
+      <c r="R80" s="71"/>
+      <c r="S80" s="71"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="36"/>
+      <c r="V80" s="35"/>
+      <c r="W80" s="36"/>
+      <c r="X80" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y80" s="79">
+        <v>150553910.69</v>
+      </c>
+      <c r="Z80" s="79"/>
+      <c r="AA80" s="79"/>
+    </row>
+    <row r="82" spans="2:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="K82" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="47"/>
+      <c r="O82" s="47"/>
+      <c r="P82" s="47"/>
+      <c r="R82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="2:21" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="F83" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="K83" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+    </row>
+    <row r="85" spans="2:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" s="81"/>
+      <c r="E85" s="81"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="81"/>
+      <c r="H85" s="81"/>
+      <c r="I85" s="81"/>
+      <c r="J85" s="81"/>
+      <c r="K85" s="81"/>
+      <c r="L85" s="81"/>
+      <c r="M85" s="81"/>
+      <c r="N85" s="81"/>
+      <c r="O85" s="81"/>
+      <c r="P85" s="81"/>
+      <c r="Q85" t="s">
+        <v>147</v>
+      </c>
+      <c r="R85" s="82">
+        <v>68</v>
+      </c>
+      <c r="S85" s="82"/>
+      <c r="T85" s="82"/>
+      <c r="U85" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="48"/>
+      <c r="M86" s="48"/>
+      <c r="N86" s="48"/>
+      <c r="O86" s="48"/>
+      <c r="P86" s="48"/>
+    </row>
+    <row r="88" spans="2:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="K88" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L88" s="47"/>
+      <c r="M88" s="47"/>
+      <c r="N88" s="47"/>
+      <c r="O88" s="47"/>
+      <c r="P88" s="47"/>
+    </row>
+    <row r="89" spans="2:21" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="F89" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="K89" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="292">
+    <mergeCell ref="P80:S80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="C85:P85"/>
+    <mergeCell ref="R85:T85"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="P78:S78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="P79:S79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="P76:S76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="P77:S77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="P74:S74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="P75:S75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="P73:S73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="P70:S70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="P68:S68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="P69:S69"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="P66:S66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="P67:S67"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="P64:S64"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="P65:S65"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="P63:S63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="M50:N50"/>
     <mergeCell ref="P50:S50"/>
     <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="C55:P55"/>
-    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="Y51:AA51"/>
     <mergeCell ref="B48:F48"/>
     <mergeCell ref="M48:N48"/>
     <mergeCell ref="P48:S48"/>
     <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="M49:N49"/>
     <mergeCell ref="P49:S49"/>
     <mergeCell ref="Y49:AA49"/>
     <mergeCell ref="B46:F46"/>
